--- a/(Students) Unit Test Style Preference Study (Original Responses).xlsx
+++ b/(Students) Unit Test Style Preference Study (Original Responses).xlsx
@@ -146,7 +146,7 @@
     <t>Style 1</t>
   </si>
   <si>
-    <t>UCI</t>
+    <t>[University]</t>
   </si>
   <si>
     <t xml:space="preserve">4th year student </t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">4th year university student </t>
   </si>
   <si>
-    <t>N/A UCI</t>
+    <t>N/A [University]</t>
   </si>
   <si>
     <t>Student, 4th year</t>
@@ -194,7 +194,7 @@
     <t>Great survey! Very easy to understand and see!</t>
   </si>
   <si>
-    <t>UC Irvine Office of Information and Technology</t>
+    <t>[University] Office of Information and Technology</t>
   </si>
   <si>
     <t>Student, 3rd year</t>
@@ -212,7 +212,7 @@
     <t>Academic Tutor / Student 4th year</t>
   </si>
   <si>
-    <t>UCI Campus Recreation</t>
+    <t>[University] Campus Recreation</t>
   </si>
   <si>
     <t>Marketing Assistant, 3rd year undergrad</t>
@@ -781,7 +781,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="18.88"/>
     <col customWidth="1" min="2" max="2" width="37.63"/>
-    <col customWidth="1" min="3" max="5" width="18.88"/>
+    <col customWidth="1" min="3" max="4" width="18.88"/>
+    <col customWidth="1" min="5" max="5" width="50.88"/>
     <col customWidth="1" min="6" max="6" width="48.5"/>
     <col customWidth="1" min="7" max="7" width="32.38"/>
     <col customWidth="1" min="8" max="43" width="18.88"/>
